--- a/public/sample_uploads/allocate_account_entries_2/account_entries.xlsx
+++ b/public/sample_uploads/allocate_account_entries_2/account_entries.xlsx
@@ -581,12 +581,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -648,8 +654,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,11 +667,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -669,19 +679,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -689,19 +699,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -718,23 +732,6 @@
     <cellStyle name="Normal 4" xfId="22"/>
     <cellStyle name="Normal 5" xfId="23"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -917,2923 +914,2923 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L108" activeCellId="0" sqref="L108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D111" activeCellId="0" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="10.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="26.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="10.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="8.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="n">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="10" t="n">
         <v>10000000</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="J2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="n">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="10" t="n">
         <v>5000000</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="J3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="n">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <v>10000000</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="J4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="n">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="10" t="n">
         <v>4800000</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="J5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="n">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="10" t="n">
         <v>4800000</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="J6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="n">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="10" t="n">
         <v>90000000</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="J7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="n">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="10" t="n">
         <v>5000000</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="J8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>0.139130434782609</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>0.278260869565217</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>0.165217391304348</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>0.278260869565217</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>0.139130434782609</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>0.161616161616162</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>0.191919191919192</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="7" t="n">
         <v>45056</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="2" t="n">
         <v>0.139130434782609</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>0.278260869565217</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="2" t="n">
         <v>0.165217391304348</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="2" t="n">
         <v>0.278260869565217</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="2" t="n">
         <v>0.139130434782609</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="2" t="n">
         <v>0.161616161616162</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="2" t="n">
         <v>0.191919191919192</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="2" t="n">
         <v>0.13827383566514</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="2" t="n">
         <v>0.27654767133028</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="2" t="n">
         <v>0.164200179852354</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="2" t="n">
         <v>0.27654767133028</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="2" t="n">
         <v>0.144430641821946</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="2" t="n">
         <v>0.161616161616162</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="2" t="n">
         <v>0.191919191919192</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="E37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="7" t="n">
         <v>45234</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="E39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="2" t="n">
         <v>0.13827383566514</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="12" t="s">
+      <c r="B40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="7" t="s">
+      <c r="E40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="2" t="n">
         <v>0.27654767133028</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="B41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="E41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="2" t="n">
         <v>0.164200179852354</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="E42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="2" t="n">
         <v>0.27654767133028</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="E43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="2" t="n">
         <v>0.144430641821946</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="E44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="2" t="n">
         <v>0.161616161616162</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="12" t="s">
+      <c r="B45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="E45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="E46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="2" t="n">
         <v>0.191919191919192</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="E47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="E48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="7" t="s">
+      <c r="E49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="2" t="n">
         <v>0.13827383566514</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="12" t="s">
+      <c r="B50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="7" t="s">
+      <c r="E50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G50" s="2" t="n">
         <v>0.27654767133028</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="12" t="s">
+      <c r="B51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="6" t="n">
+      <c r="D51" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="7" t="s">
+      <c r="E51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="1" t="n">
+      <c r="G51" s="2" t="n">
         <v>0.164200179852354</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="12" t="s">
+      <c r="B52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="7" t="s">
+      <c r="E52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="1" t="n">
+      <c r="G52" s="2" t="n">
         <v>0.27654767133028</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="E53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="1" t="n">
+      <c r="G53" s="2" t="n">
         <v>0.144430641821946</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="12" t="s">
+      <c r="B54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="E54" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G54" s="1" t="n">
+      <c r="G54" s="2" t="n">
         <v>0.161616161616162</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="6" t="n">
+      <c r="D55" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="7" t="s">
+      <c r="E55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="1" t="n">
+      <c r="G55" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="12" t="s">
+      <c r="B56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="E56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="1" t="n">
+      <c r="G56" s="2" t="n">
         <v>0.191919191919192</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="B57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="6" t="n">
+      <c r="D57" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="7" t="s">
+      <c r="E57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G57" s="1" t="n">
+      <c r="G57" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="12" t="s">
+      <c r="B58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="6" t="n">
+      <c r="D58" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="7" t="s">
+      <c r="E58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G58" s="1" t="n">
+      <c r="G58" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="12" t="s">
+      <c r="B59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="6" t="n">
+      <c r="D59" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="7" t="s">
+      <c r="E59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="1" t="n">
+      <c r="G59" s="2" t="n">
         <v>0.125377522985018</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="12" t="s">
+      <c r="B60" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="6" t="n">
+      <c r="D60" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="7" t="s">
+      <c r="E60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="1" t="n">
+      <c r="G60" s="2" t="n">
         <v>0.250755045970035</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="6" t="n">
+      <c r="D61" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="7" t="s">
+      <c r="E61" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="1" t="n">
+      <c r="G61" s="2" t="n">
         <v>0.148885808544708</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="B62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="6" t="n">
+      <c r="D62" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="E62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="1" t="n">
+      <c r="G62" s="2" t="n">
         <v>0.250755045970035</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="6" t="n">
+      <c r="D63" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="7" t="s">
+      <c r="E63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="1" t="n">
+      <c r="G63" s="2" t="n">
         <v>0.224226576530204</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J63" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="6" t="n">
+      <c r="D64" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="7" t="s">
+      <c r="E64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G64" s="1" t="n">
+      <c r="G64" s="2" t="n">
         <v>0.161616161616162</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="6" t="n">
+      <c r="D65" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="E65" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="1" t="n">
+      <c r="G65" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="B66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="6" t="n">
+      <c r="D66" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="7" t="s">
+      <c r="E66" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G66" s="1" t="n">
+      <c r="G66" s="2" t="n">
         <v>0.191919191919192</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="6" t="n">
+      <c r="D67" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="7" t="s">
+      <c r="E67" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G67" s="1" t="n">
+      <c r="G67" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="B68" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="6" t="n">
+      <c r="D68" s="7" t="n">
         <v>45275</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="7" t="s">
+      <c r="E68" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G68" s="1" t="n">
+      <c r="G68" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="J68" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="6" t="n">
+      <c r="D69" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="7" t="s">
+      <c r="E69" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="1" t="n">
+      <c r="G69" s="2" t="n">
         <v>0.125377522985018</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J69" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="12" t="s">
+      <c r="B70" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="6" t="n">
+      <c r="D70" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="7" t="s">
+      <c r="E70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="1" t="n">
+      <c r="G70" s="2" t="n">
         <v>0.250755045970035</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="12" t="s">
+      <c r="B71" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="6" t="n">
+      <c r="D71" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="7" t="s">
+      <c r="E71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G71" s="1" t="n">
+      <c r="G71" s="2" t="n">
         <v>0.148885808544708</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="12" t="s">
+      <c r="B72" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="6" t="n">
+      <c r="D72" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="7" t="s">
+      <c r="E72" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G72" s="1" t="n">
+      <c r="G72" s="2" t="n">
         <v>0.250755045970035</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J72" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="6" t="n">
+      <c r="D73" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F73" s="7" t="s">
+      <c r="E73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G73" s="1" t="n">
+      <c r="G73" s="2" t="n">
         <v>0.224226576530204</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="6" t="n">
+      <c r="D74" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="7" t="s">
+      <c r="E74" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G74" s="1" t="n">
+      <c r="G74" s="2" t="n">
         <v>0.161616161616162</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="6" t="n">
+      <c r="D75" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" s="7" t="s">
+      <c r="E75" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G75" s="1" t="n">
+      <c r="G75" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="12" t="s">
+      <c r="B76" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="6" t="n">
+      <c r="D76" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="7" t="s">
+      <c r="E76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G76" s="1" t="n">
+      <c r="G76" s="2" t="n">
         <v>0.191919191919192</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="6" t="n">
+      <c r="D77" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="7" t="s">
+      <c r="E77" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G77" s="1" t="n">
+      <c r="G77" s="2" t="n">
         <v>0.323232323232323</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="J77" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="12" t="s">
+      <c r="B78" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="6" t="n">
+      <c r="D78" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="7" t="s">
+      <c r="E78" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G78" s="1" t="n">
+      <c r="G78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="13" t="n">
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="14" t="n">
         <v>45473</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G79" s="1" t="n">
+      <c r="G79" s="2" t="n">
         <v>500000</v>
       </c>
-      <c r="J79" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O79" s="11" t="s">
+      <c r="J79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O79" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="13" t="n">
+      <c r="B80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="14" t="n">
         <v>45463</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G80" s="1" t="n">
+      <c r="G80" s="2" t="n">
         <v>250000</v>
       </c>
-      <c r="J80" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O80" s="11" t="s">
+      <c r="J80" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O80" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="13" t="n">
+      <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="14" t="n">
         <v>45473</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G81" s="1" t="n">
+      <c r="G81" s="2" t="n">
         <v>500000</v>
       </c>
-      <c r="J81" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O81" s="11" t="s">
+      <c r="J81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O81" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="13" t="n">
+      <c r="B82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="14" t="n">
         <v>45463</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G82" s="1" t="n">
+      <c r="G82" s="2" t="n">
         <v>250000</v>
       </c>
-      <c r="J82" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O82" s="11" t="s">
+      <c r="J82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O82" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="13" t="n">
+      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="14" t="n">
         <v>45473</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G83" s="1" t="n">
+      <c r="G83" s="2" t="n">
         <v>500000</v>
       </c>
-      <c r="J83" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O83" s="11" t="s">
+      <c r="J83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O83" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="13" t="n">
+      <c r="B84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="14" t="n">
         <v>45473</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G84" s="1" t="n">
+      <c r="G84" s="2" t="n">
         <v>500000</v>
       </c>
-      <c r="J84" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O84" s="11" t="s">
+      <c r="J84" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O84" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="12" t="s">
+      <c r="B85" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="6" t="n">
+      <c r="D85" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G85" s="1" t="n">
+      <c r="G85" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="12" t="s">
+      <c r="B86" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="6" t="n">
+      <c r="D86" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G86" s="1" t="n">
+      <c r="G86" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="12" t="s">
+      <c r="B87" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="6" t="n">
+      <c r="D87" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G87" s="1" t="n">
+      <c r="G87" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J87" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="12" t="s">
+      <c r="B88" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="6" t="n">
+      <c r="D88" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G88" s="1" t="n">
+      <c r="G88" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="12" t="s">
+      <c r="B89" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="6" t="n">
+      <c r="D89" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G89" s="1" t="n">
+      <c r="G89" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10"/>
-      <c r="B90" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="6" t="n">
+      <c r="A90" s="11"/>
+      <c r="B90" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="7" t="n">
         <v>45292</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G90" s="1" t="n">
+      <c r="G90" s="2" t="n">
         <v>500000</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="12" t="s">
+      <c r="B91" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D91" s="6" t="n">
+      <c r="D91" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G91" s="1" t="n">
+      <c r="G91" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="12" t="s">
+      <c r="B92" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="6" t="n">
+      <c r="D92" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G92" s="1" t="n">
+      <c r="G92" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="12" t="s">
+      <c r="B93" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="6" t="n">
+      <c r="D93" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G93" s="1" t="n">
+      <c r="G93" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="12" t="s">
+      <c r="B94" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D94" s="6" t="n">
+      <c r="D94" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G94" s="1" t="n">
+      <c r="G94" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="12" t="s">
+      <c r="B95" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D95" s="6" t="n">
+      <c r="D95" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G95" s="1" t="n">
+      <c r="G95" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J95" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10"/>
-      <c r="B96" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="6" t="n">
+      <c r="A96" s="11"/>
+      <c r="B96" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="7" t="n">
         <v>45323</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G96" s="1" t="n">
+      <c r="G96" s="2" t="n">
         <v>500000</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J96" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="12" t="s">
+      <c r="B97" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="6" t="n">
+      <c r="D97" s="7" t="n">
         <v>45352</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G97" s="1" t="n">
+      <c r="G97" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" s="12" t="s">
+      <c r="B98" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="6" t="n">
+      <c r="D98" s="7" t="n">
         <v>45352</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G98" s="1" t="n">
+      <c r="G98" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="12" t="s">
+      <c r="B99" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D99" s="6" t="n">
+      <c r="D99" s="7" t="n">
         <v>45352</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G99" s="1" t="n">
+      <c r="G99" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J99" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="12" t="s">
+      <c r="B100" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="6" t="n">
+      <c r="D100" s="7" t="n">
         <v>45352</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G100" s="1" t="n">
+      <c r="G100" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J100" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="12" t="s">
+      <c r="B101" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D101" s="6" t="n">
+      <c r="D101" s="7" t="n">
         <v>45352</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G101" s="1" t="n">
+      <c r="G101" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J101" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="6" t="n">
+      <c r="B102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="7" t="n">
         <v>45352</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G102" s="1" t="n">
+      <c r="G102" s="2" t="n">
         <v>500000</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J102" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="13" t="n">
+      <c r="B103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="14" t="n">
         <v>45402</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G103" s="1" t="n">
+      <c r="G103" s="2" t="n">
         <v>2000000</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="13" t="n">
+      <c r="B104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="14" t="n">
         <v>45382</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G104" s="1" t="n">
+      <c r="G104" s="2" t="n">
         <v>1000000</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="I104" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J104" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L104" s="2" t="n">
+      <c r="L104" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M104" s="2" t="n">
+      <c r="M104" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O104" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="13" t="n">
+      <c r="B105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="14" t="n">
         <v>45382</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G105" s="1" t="n">
+      <c r="G105" s="2" t="n">
         <v>1000000</v>
       </c>
-      <c r="I105" s="11" t="s">
+      <c r="I105" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J105" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L105" s="2" t="n">
+      <c r="L105" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M105" s="2" t="n">
+      <c r="M105" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="13" t="n">
+      <c r="B106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="14" t="n">
         <v>45371</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G106" s="1" t="n">
+      <c r="G106" s="2" t="n">
         <v>1000000</v>
       </c>
-      <c r="J106" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L106" s="2" t="n">
+      <c r="L106" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="13" t="n">
+      <c r="B107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="14" t="n">
         <v>45382</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G107" s="1" t="n">
+      <c r="G107" s="2" t="n">
         <v>1000000</v>
       </c>
-      <c r="J107" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L107" s="2" t="n">
+      <c r="L107" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="13" t="n">
+      <c r="D108" s="14" t="n">
         <v>45473</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G108" s="1" t="n">
+      <c r="G108" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="J108" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O108" s="11" t="s">
+      <c r="J108" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O108" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P108" s="0" t="n">
+      <c r="P108" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D109" s="13" t="n">
+      <c r="D109" s="15" t="n">
+        <v>45472</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>12500</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O109" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="14" t="n">
         <v>45473</v>
       </c>
-      <c r="E109" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G109" s="1" t="n">
-        <v>12500</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O109" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="s">
+      <c r="E110" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O110" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B111" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D110" s="13" t="n">
-        <v>45473</v>
-      </c>
-      <c r="E110" s="11" t="s">
+      <c r="C111" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="15" t="n">
+        <v>45472</v>
+      </c>
+      <c r="E111" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F111" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G110" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O110" s="11" t="s">
+      <c r="G111" s="2" t="n">
+        <v>25000</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O111" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P110" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D111" s="13" t="n">
-        <v>45473</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="1" t="n">
-        <v>25000</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O111" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P111" s="0" t="n">
+      <c r="P111" s="1" t="n">
         <v>75</v>
       </c>
     </row>
